--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanlazov/Documents/dev/affective_computing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D4EC59-3A9B-F04B-90ED-8ACE76C7067A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B364D-7314-D743-B9C8-75F340DB97CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{70C33A0D-CEF4-DA48-B647-5F523645AA36}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>Model</t>
   </si>
@@ -71,34 +71,151 @@
     <t>RandomForest + average embeddings</t>
   </si>
   <si>
-    <t>RandomForest + average embeddings + emojis</t>
-  </si>
-  <si>
     <t>RandomForest + average embeddings + emojis + lexicon</t>
   </si>
   <si>
-    <t>RandomForest + lstm embeddings</t>
-  </si>
-  <si>
-    <t>RandomForest + lstm embeddings + emojis + lexicon</t>
-  </si>
-  <si>
-    <t>RandomForest + lstm embeddings + lexicon</t>
-  </si>
-  <si>
-    <t>RandomForest +l lstm embeddings + emojis</t>
-  </si>
-  <si>
     <t>anger</t>
   </si>
   <si>
     <t>fear</t>
   </si>
   <si>
-    <t>RandomForest + lstm embeddings + emojis</t>
-  </si>
-  <si>
     <t>sadness</t>
+  </si>
+  <si>
+    <t>AdaBoost + average embeddings</t>
+  </si>
+  <si>
+    <t>AdaBoost + average embeddings + emojis</t>
+  </si>
+  <si>
+    <t>AdaBoost + average embeddings + emojis + lexicon</t>
+  </si>
+  <si>
+    <t>0.697</t>
+  </si>
+  <si>
+    <t>0.7164</t>
+  </si>
+  <si>
+    <t>0.7104</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>RandomForest + average embeddings + lexicon</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.387</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.525</t>
+  </si>
+  <si>
+    <t>0.523</t>
+  </si>
+  <si>
+    <t>0.547</t>
+  </si>
+  <si>
+    <t>0.505</t>
+  </si>
+  <si>
+    <t>0.414</t>
+  </si>
+  <si>
+    <t>0.389</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.503</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>0.446</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.521</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.172</t>
   </si>
 </sst>
 </file>
@@ -459,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CCB759-72A6-7E4A-8986-57279DF130A6}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -534,213 +651,345 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>10</v>
       </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>11</v>
       </c>
-      <c r="B17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -748,103 +997,71 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
         <v>15</v>
-      </c>
-      <c r="B42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>14</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>20</v>
-      </c>
-      <c r="B45" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/experimental_results.xlsx
+++ b/experimental_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stefanlazov/Documents/dev/affective_computing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0B364D-7314-D743-B9C8-75F340DB97CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C8D30F-399C-224B-B838-DE0FD343F52A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{70C33A0D-CEF4-DA48-B647-5F523645AA36}"/>
+    <workbookView xWindow="9640" yWindow="4040" windowWidth="28040" windowHeight="17440" xr2:uid="{70C33A0D-CEF4-DA48-B647-5F523645AA36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="86">
   <si>
     <t>Model</t>
   </si>
@@ -59,15 +59,9 @@
     <t>joy</t>
   </si>
   <si>
-    <t>LSTM + attention + emojis</t>
-  </si>
-  <si>
     <t>LSTM + attention + lexicon</t>
   </si>
   <si>
-    <t>LSTM + attention + emojis + lexicon</t>
-  </si>
-  <si>
     <t>RandomForest + average embeddings</t>
   </si>
   <si>
@@ -86,18 +80,12 @@
     <t>AdaBoost + average embeddings</t>
   </si>
   <si>
-    <t>AdaBoost + average embeddings + emojis</t>
-  </si>
-  <si>
     <t>AdaBoost + average embeddings + emojis + lexicon</t>
   </si>
   <si>
     <t>0.697</t>
   </si>
   <si>
-    <t>0.7164</t>
-  </si>
-  <si>
     <t>0.7104</t>
   </si>
   <si>
@@ -197,6 +185,9 @@
     <t>0.361</t>
   </si>
   <si>
+    <t>0.520</t>
+  </si>
+  <si>
     <t>0.521</t>
   </si>
   <si>
@@ -216,6 +207,90 @@
   </si>
   <si>
     <t>0.172</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.534</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.3779</t>
+  </si>
+  <si>
+    <t>0.478</t>
+  </si>
+  <si>
+    <t>0.5706</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>AdaBoost + average embeddings + lexicon</t>
+  </si>
+  <si>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.7239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LSTM (attention) + Random Forest (true, true) </t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.6406</t>
+  </si>
+  <si>
+    <t>0.5536</t>
+  </si>
+  <si>
+    <t>RandomForest + LSTM context</t>
+  </si>
+  <si>
+    <t>RandomForest + LSTM context + additional</t>
+  </si>
+  <si>
+    <t>0.712</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.607</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.469</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.778</t>
+  </si>
+  <si>
+    <t>0.733</t>
   </si>
 </sst>
 </file>
@@ -576,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CCB759-72A6-7E4A-8986-57279DF130A6}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -619,6 +694,9 @@
       <c r="B2" t="s">
         <v>7</v>
       </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -627,6 +705,9 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -635,433 +716,540 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>15</v>
+        <v>7</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="B27" t="s">
-        <v>15</v>
+      <c r="C27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>12</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41" t="s">
-        <v>15</v>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>77</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
